--- a/Results/Compiled Results.xlsx
+++ b/Results/Compiled Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Average rating score for RB-CRS</t>
   </si>
@@ -120,6 +120,57 @@
   </si>
   <si>
     <t>CRB-CRS</t>
+  </si>
+  <si>
+    <t>hit@1</t>
+  </si>
+  <si>
+    <t>hit@10</t>
+  </si>
+  <si>
+    <t>hit@50</t>
+  </si>
+  <si>
+    <t>mrr@1</t>
+  </si>
+  <si>
+    <t>mrr@10</t>
+  </si>
+  <si>
+    <t>mrr@50</t>
+  </si>
+  <si>
+    <t>ndcg@1</t>
+  </si>
+  <si>
+    <t>ndcg@10</t>
+  </si>
+  <si>
+    <t>ndcg@50</t>
+  </si>
+  <si>
+    <t>DeepCRS</t>
+  </si>
+  <si>
+    <t>Avg (v1)</t>
+  </si>
+  <si>
+    <t>Avg (v2)</t>
+  </si>
+  <si>
+    <t>KGSF</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Avg(v1)</t>
+  </si>
+  <si>
+    <t>Offline experiment results</t>
+  </si>
+  <si>
+    <t>TG-ReDial</t>
   </si>
 </sst>
 </file>
@@ -129,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +209,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +261,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,49 +280,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,240 +632,423 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.3004484304932724</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2.4596412556053799</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="9">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="9">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.61933213639627627</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.59539879226080783</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="9">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="9">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2.3079222720478327</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2.4559043348281016</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="10">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="10">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="10">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="10">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.54935938407581941</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.54669707780822829</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="10">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="10">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="10">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>174</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>222</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>208</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="16"/>
+      <c r="F12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="20">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I12" s="20">
+        <v>4.6393666666666666E-2</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.17259999999999998</v>
+      </c>
+      <c r="K12" s="20">
+        <v>6.4733333333333335E-3</v>
+      </c>
+      <c r="L12" s="20">
+        <v>1.4775000000000002E-2</v>
+      </c>
+      <c r="M12" s="20">
+        <v>1.9317999999999998E-2</v>
+      </c>
+      <c r="N12" s="20">
+        <v>6.4733333333333335E-3</v>
+      </c>
+      <c r="O12" s="20">
+        <v>2.2041333333333333E-2</v>
+      </c>
+      <c r="P12" s="20">
+        <v>4.7846666666666669E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2.5566666666666668E-2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>5.7763333333333333E-2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.12220000000000002</v>
+      </c>
+      <c r="K13" s="20">
+        <v>2.5566666666666668E-2</v>
+      </c>
+      <c r="L13" s="20">
+        <v>3.0583333333333334E-2</v>
+      </c>
+      <c r="M13" s="20">
+        <v>3.3319999999999995E-2</v>
+      </c>
+      <c r="N13" s="20">
+        <v>2.5566666666666668E-2</v>
+      </c>
+      <c r="O13" s="20">
+        <v>3.6606666666666669E-2</v>
+      </c>
+      <c r="P13" s="20">
+        <v>5.0389999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="D14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22">
+        <f>((H13-H12)/H12)*100</f>
+        <v>4161.1111111111113</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" ref="I14:P14" si="0">((I13-I12)/I12)*100</f>
+        <v>24.506937010080399</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="0"/>
+        <v>-29.200463499420604</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="0"/>
+        <v>294.95365602471679</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="0"/>
+        <v>106.99379582628312</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="0"/>
+        <v>72.481623356455117</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="0"/>
+        <v>294.95365602471679</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="0"/>
+        <v>66.081906720706556</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="0"/>
+        <v>5.3155914727601949</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="20">
+        <v>2.1573333333333336E-3</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2.1573999999999999E-2</v>
+      </c>
+      <c r="J16" s="20">
+        <v>7.4433333333333337E-2</v>
+      </c>
+      <c r="K16" s="20">
+        <v>3.2360000000000002E-3</v>
+      </c>
+      <c r="L16" s="20">
+        <v>6.1266666666666665E-3</v>
+      </c>
+      <c r="M16" s="20">
+        <v>8.4403333333333327E-3</v>
+      </c>
+      <c r="N16" s="20">
+        <v>2.1573333333333336E-3</v>
+      </c>
+      <c r="O16" s="20">
+        <v>9.6656666666666662E-3</v>
+      </c>
+      <c r="P16" s="20">
+        <v>2.1076666666666671E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -796,8 +1058,39 @@
       <c r="D17" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="18"/>
+      <c r="G17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="20">
+        <v>6.6289999999999995E-3</v>
+      </c>
+      <c r="I17" s="20">
+        <v>3.0303333333333331E-2</v>
+      </c>
+      <c r="J17" s="20">
+        <v>5.871333333333334E-2</v>
+      </c>
+      <c r="K17" s="20">
+        <v>5.6819999999999996E-3</v>
+      </c>
+      <c r="L17" s="20">
+        <v>1.2313333333333334E-2</v>
+      </c>
+      <c r="M17" s="20">
+        <v>1.337E-2</v>
+      </c>
+      <c r="N17" s="20">
+        <v>6.6289999999999995E-3</v>
+      </c>
+      <c r="O17" s="20">
+        <v>1.6466666666666668E-2</v>
+      </c>
+      <c r="P17" s="20">
+        <v>2.2296666666666669E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -807,8 +1100,39 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="18"/>
+      <c r="G18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="22">
+        <v>207.27750309023477</v>
+      </c>
+      <c r="I18" s="22">
+        <v>40.462284849046689</v>
+      </c>
+      <c r="J18" s="22">
+        <v>-21.119570085087322</v>
+      </c>
+      <c r="K18" s="22">
+        <v>75.587144622991318</v>
+      </c>
+      <c r="L18" s="22">
+        <v>100.97932535364529</v>
+      </c>
+      <c r="M18" s="22">
+        <v>58.406066111133057</v>
+      </c>
+      <c r="N18" s="22">
+        <v>207.27750309023477</v>
+      </c>
+      <c r="O18" s="22">
+        <v>70.362451288064292</v>
+      </c>
+      <c r="P18" s="22">
+        <v>5.7883915862723327</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -819,7 +1143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -829,21 +1153,222 @@
       <c r="D20" s="1">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3.6520000000000004E-2</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.11485000000000001</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0.2343666666666667</v>
+      </c>
+      <c r="K20" s="20">
+        <v>3.6520000000000004E-2</v>
+      </c>
+      <c r="L20" s="20">
+        <v>5.7233333333333331E-2</v>
+      </c>
+      <c r="M20" s="20">
+        <v>6.2626666666666664E-2</v>
+      </c>
+      <c r="N20" s="20">
+        <v>3.6520000000000004E-2</v>
+      </c>
+      <c r="O20" s="20">
+        <v>7.0730000000000001E-2</v>
+      </c>
+      <c r="P20" s="20">
+        <v>9.6736666666666651E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <f>SUM(C17:C20)</f>
         <v>1851</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>18.899999999999999</v>
       </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="20">
+        <v>5.1130000000000002E-2</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0.13146666666666665</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0.24170000000000003</v>
+      </c>
+      <c r="K21" s="20">
+        <v>5.1130000000000002E-2</v>
+      </c>
+      <c r="L21" s="20">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="M21" s="20">
+        <v>7.9213333333333344E-2</v>
+      </c>
+      <c r="N21" s="20">
+        <v>5.1130000000000002E-2</v>
+      </c>
+      <c r="O21" s="20">
+        <v>8.774333333333334E-2</v>
+      </c>
+      <c r="P21" s="20">
+        <v>0.11175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="18"/>
+      <c r="G22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="22">
+        <v>40.005476451259575</v>
+      </c>
+      <c r="I22" s="22">
+        <v>14.468146858220846</v>
+      </c>
+      <c r="J22" s="22">
+        <v>3.1290001422272775</v>
+      </c>
+      <c r="K22" s="22">
+        <v>40.005476451259575</v>
+      </c>
+      <c r="L22" s="22">
+        <v>29.644729178800244</v>
+      </c>
+      <c r="M22" s="22">
+        <v>26.484990419416672</v>
+      </c>
+      <c r="N22" s="22">
+        <v>40.005476451259575</v>
+      </c>
+      <c r="O22" s="22">
+        <v>24.053913945049253</v>
+      </c>
+      <c r="P22" s="22">
+        <v>15.519796009786038</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1.5103E-2</v>
+      </c>
+      <c r="I24" s="20">
+        <v>5.5013333333333331E-2</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0.15316666666666665</v>
+      </c>
+      <c r="K24" s="20">
+        <v>1.5103E-2</v>
+      </c>
+      <c r="L24" s="20">
+        <v>2.4076666666666663E-2</v>
+      </c>
+      <c r="M24" s="20">
+        <v>2.8586666666666666E-2</v>
+      </c>
+      <c r="N24" s="20">
+        <v>1.5103E-2</v>
+      </c>
+      <c r="O24" s="20">
+        <v>3.1236666666666666E-2</v>
+      </c>
+      <c r="P24" s="20">
+        <v>5.2683333333333332E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="18"/>
+      <c r="G25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1.9418666666666667E-2</v>
+      </c>
+      <c r="I25" s="20">
+        <v>7.3353333333333326E-2</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.18553333333333333</v>
+      </c>
+      <c r="K25" s="20">
+        <v>1.9418666666666667E-2</v>
+      </c>
+      <c r="L25" s="20">
+        <v>2.9276666666666663E-2</v>
+      </c>
+      <c r="M25" s="20">
+        <v>3.5290000000000002E-2</v>
+      </c>
+      <c r="N25" s="20">
+        <v>1.9418666666666667E-2</v>
+      </c>
+      <c r="O25" s="20">
+        <v>3.9183333333333327E-2</v>
+      </c>
+      <c r="P25" s="20">
+        <v>6.4950000000000008E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="18"/>
+      <c r="G26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="22">
+        <v>28.574896819616413</v>
+      </c>
+      <c r="I26" s="22">
+        <v>33.337372758119237</v>
+      </c>
+      <c r="J26" s="22">
+        <v>21.13166485310121</v>
+      </c>
+      <c r="K26" s="22">
+        <v>28.574896819616413</v>
+      </c>
+      <c r="L26" s="22">
+        <v>21.59767409663575</v>
+      </c>
+      <c r="M26" s="22">
+        <v>23.449160447761201</v>
+      </c>
+      <c r="N26" s="22">
+        <v>28.574896819616413</v>
+      </c>
+      <c r="O26" s="22">
+        <v>25.440187813467062</v>
+      </c>
+      <c r="P26" s="22">
+        <v>23.283770958557437</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F10:P10"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -854,6 +1379,8 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F16:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
